--- a/PS-250/Lab2_Ballistics.xlsx
+++ b/PS-250/Lab2_Ballistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stark/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevStark\Github\Fall_2018_Homework\PS-250\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF4EA95-4848-9D4C-A538-FE3A963AB043}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{645B52BC-B146-4C1D-9848-9875AE9620C2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="27920" windowHeight="17440" xr2:uid="{8A792487-665D-AC4A-9DA8-7CD03030D357}"/>
+    <workbookView xWindow="375" yWindow="915" windowWidth="27915" windowHeight="17445" xr2:uid="{8A792487-665D-AC4A-9DA8-7CD03030D357}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Pendulum Launch</t>
   </si>
@@ -90,6 +85,9 @@
   </si>
   <si>
     <t>Percent Difference Between the two methods</t>
+  </si>
+  <si>
+    <t>Pendulum Initial Velocity</t>
   </si>
 </sst>
 </file>
@@ -455,21 +453,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5969B3D6-B871-4D42-92E4-C2B666FA1C58}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" customWidth="1"/>
+    <col min="3" max="3" width="36.625" customWidth="1"/>
+    <col min="4" max="4" width="39.125" customWidth="1"/>
     <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,6 +476,9 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -487,7 +488,7 @@
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -498,6 +499,10 @@
         <f>(B2 - F4) / 100</f>
         <v>7.5500000000000012E-2</v>
       </c>
+      <c r="D2" s="1">
+        <f xml:space="preserve"> ((F1 + F3) / F1) * SQRT(2 * 9.8 * C2)</f>
+        <v>6.1178171254684237</v>
+      </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
@@ -506,7 +511,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -517,6 +522,10 @@
         <f>(B3 - F4) / 100</f>
         <v>7.9499999999999987E-2</v>
       </c>
+      <c r="D3" s="1">
+        <f xml:space="preserve"> ((F1 + F3) / F1) * SQRT(2 * 9.8 * C3)</f>
+        <v>6.277787043412058</v>
+      </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
@@ -525,7 +534,7 @@
         <v>276.39999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -536,6 +545,10 @@
         <f>(B4 - F4) / 100</f>
         <v>7.9499999999999987E-2</v>
       </c>
+      <c r="D4" s="1">
+        <f xml:space="preserve"> ((F1 + F3) / F1) * SQRT(2 * 9.8 * C4)</f>
+        <v>6.277787043412058</v>
+      </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
@@ -543,7 +556,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -554,8 +567,12 @@
         <f xml:space="preserve"> (B5 - F4) / 100</f>
         <v>8.2500000000000004E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <f xml:space="preserve"> ((F1 + F3) / F1) * SQRT(2 * 9.8 * C5)</f>
+        <v>6.3951390132467427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -566,8 +583,12 @@
         <f>(B6 - F4) / 100</f>
         <v>7.5500000000000012E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
+        <f xml:space="preserve"> ((F1 + F3) / F1) * SQRT(2 * 9.8 * C6)</f>
+        <v>6.1178171254684237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -575,6 +596,10 @@
         <f>AVERAGE(C2:C6)</f>
         <v>7.85E-2</v>
       </c>
+      <c r="D7" s="1">
+        <f>AVERAGE(D2:D6)</f>
+        <v>6.2372694702015412</v>
+      </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
@@ -583,7 +608,7 @@
         <v>6.2912615644657928</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -599,7 +624,7 @@
         <v>2.6887549278851033</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -608,7 +633,7 @@
         <v>7.9841640786499871E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -622,7 +647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -638,7 +663,7 @@
         <v>6.0601906417640965</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -654,7 +679,7 @@
         <v>6.1537843196291799</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -670,7 +695,7 @@
         <v>6.0133938028315557</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -686,7 +711,7 @@
         <v>6.0601906417640965</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -702,7 +727,7 @@
         <v>6.1069874806966382</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
@@ -711,7 +736,7 @@
         <v>6.0789093773371139</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
@@ -720,7 +745,7 @@
         <v>5.3356605723206371E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
@@ -729,28 +754,28 @@
         <v>6.1322659830603206</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="1">
-        <f xml:space="preserve"> ((F7 - D18) / ((D18 + F7) / 2)) * 100</f>
-        <v>2.5595883423163959</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+        <f xml:space="preserve"> ((D7 - D18) / ((D18 + D7) / 2)) * 100</f>
+        <v>1.6977757578362591</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>

--- a/PS-250/Lab2_Ballistics.xlsx
+++ b/PS-250/Lab2_Ballistics.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevStark\Github\Fall_2018_Homework\PS-250\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stark/StarkDev/Fall_2018_Homework/PS-250/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{645B52BC-B146-4C1D-9848-9875AE9620C2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730EB26A-A023-B442-82C4-CDA69847D34C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="915" windowWidth="27915" windowHeight="17445" xr2:uid="{8A792487-665D-AC4A-9DA8-7CD03030D357}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8A792487-665D-AC4A-9DA8-7CD03030D357}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,9 +42,6 @@
     <t>Height from Platform to Screw cm</t>
   </si>
   <si>
-    <t>Mass of Ball g</t>
-  </si>
-  <si>
     <t>Pendulum Velocty m/s^2</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Pendulum Initial Velocity</t>
+  </si>
+  <si>
+    <t>Mass of Ball kg</t>
   </si>
 </sst>
 </file>
@@ -453,21 +453,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5969B3D6-B871-4D42-92E4-C2B666FA1C58}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="36.625" customWidth="1"/>
-    <col min="4" max="4" width="39.125" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" customWidth="1"/>
     <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,17 +478,17 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1">
-        <f>68.6</f>
-        <v>68.599999999999994</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <f>68.6 / 1000</f>
+        <v>6.8599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -504,14 +504,14 @@
         <v>6.1178171254684237</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <f>89.5 / 100</f>
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -527,14 +527,14 @@
         <v>6.277787043412058</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <f xml:space="preserve"> 276.4</f>
-        <v>276.39999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <f xml:space="preserve"> 0.2764</f>
+        <v>0.27639999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -556,7 +556,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -572,7 +572,7 @@
         <v>6.3951390132467427</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -588,9 +588,9 @@
         <v>6.1178171254684237</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -601,53 +601,53 @@
         <v>6.2372694702015412</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <f xml:space="preserve"> ((F1 + F3) / F1) * SQRT(2 * 9.8 * C9)</f>
         <v>6.2912615644657928</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <f>STDEVA(C2:C6) / SQRT(5)</f>
         <v>1.3416407864998709E-3</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <f>(F7) / SQRT(9.8 / (2 * F2))</f>
         <v>2.6887549278851033</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <f xml:space="preserve"> C7 +C8</f>
         <v>7.9841640786499871E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -663,7 +663,7 @@
         <v>6.0601906417640965</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -679,7 +679,7 @@
         <v>6.1537843196291799</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -695,7 +695,7 @@
         <v>6.0133938028315557</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -711,7 +711,7 @@
         <v>6.0601906417640965</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -727,55 +727,55 @@
         <v>6.1069874806966382</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2">
         <f>AVERAGE(D11:D15)</f>
         <v>6.0789093773371139</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
         <f>STDEVA(D11:D15)</f>
         <v>5.3356605723206371E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2">
         <f xml:space="preserve"> D17 + D16</f>
         <v>6.1322659830603206</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1">
         <f xml:space="preserve"> ((D7 - D18) / ((D18 + D7) / 2)) * 100</f>
         <v>1.6977757578362591</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
